--- a/classfiers/mega/multinomialNB/mega-multinomialNB-results.xlsx
+++ b/classfiers/mega/multinomialNB/mega-multinomialNB-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.328125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7143018018018018</v>
+        <v>0.7228348574502421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5571015815085159</v>
+        <v>0.570957700054935</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7143018018018018</v>
+        <v>0.7228348574502421</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6164383561643836</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8930743243243243</v>
+        <v>0.8771516944593867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8269732902143969</v>
+        <v>0.8034670767510136</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8930743243243243</v>
+        <v>0.8771516944593867</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.64</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9270270270270271</v>
+        <v>0.9408284023668638</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8508853018559339</v>
+        <v>0.8742138364779874</v>
       </c>
       <c r="E4" t="n">
-        <v>0.927027027027027</v>
+        <v>0.9408284023668639</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9642857142857143</v>
+        <v>0.96</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7845313398504888</v>
+        <v>0.7761111875602036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8330077120822623</v>
+        <v>0.8248512888301387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7845313398504888</v>
+        <v>0.7761111875602037</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8162737205290397</v>
+        <v>0.8105820833906701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8459349207855043</v>
+        <v>0.8244969945650218</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8162737205290397</v>
+        <v>0.8105820833906701</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6802559252011308</v>
+        <v>0.6622574732017837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8270416427065364</v>
+        <v>0.8255016450454733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7827805612893226</v>
+        <v>0.7795973793358193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8270416427065364</v>
+        <v>0.8255016450454733</v>
       </c>
     </row>
   </sheetData>
